--- a/winner_number.xlsx
+++ b/winner_number.xlsx
@@ -42,12 +42,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23025,6 +23028,26 @@
         <v>35.0</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C1139" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D1139" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E1139" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="F1139" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
